--- a/db/load/cdisc/ct/changes/2020-12-18/SEND Terminology Changes 2020-12-18.xlsx
+++ b/db/load/cdisc/ct/changes/2020-12-18/SEND Terminology Changes 2020-12-18.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/changes/2020-12-18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC569A08-9358-A445-9989-179E27465AD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9080B09-4DED-AD4E-BE15-C66F2A4E2E8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24520" yWindow="30700" windowWidth="18760" windowHeight="8900"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="36600" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEND Terminology Changes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SEND Terminology Changes'!$A$1:$K$265</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SEND Terminology Changes'!$A$1:$Q$265</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="628">
   <si>
     <t>Release Date</t>
   </si>
@@ -1865,14 +1867,65 @@
   </si>
   <si>
     <t>C61510 is replacing C124510, C124511, C124512, C124513, C87069, and C87175 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Prev Codelist</t>
+  </si>
+  <si>
+    <t>Prev Term</t>
+  </si>
+  <si>
+    <t>New Codelists</t>
+  </si>
+  <si>
+    <t>New Terms</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>C124510, C124511, C124512, C124513, C87069, C87175</t>
+  </si>
+  <si>
+    <t>C3740</t>
+  </si>
+  <si>
+    <t>C9118</t>
+  </si>
+  <si>
+    <t>C67012</t>
+  </si>
+  <si>
+    <t>C124310</t>
+  </si>
+  <si>
+    <t>C89981</t>
+  </si>
+  <si>
+    <t>C89980</t>
+  </si>
+  <si>
+    <t>C77529</t>
+  </si>
+  <si>
+    <t>C88025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1894,7 +1947,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1904,6 +1957,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1951,7 +2010,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1959,14 +2018,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1979,18 +2038,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normal 23 2" xfId="2"/>
-    <cellStyle name="Normal 28" xfId="3"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 23 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 28" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2267,12 +2332,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K265"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M273" sqref="M273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2282,12 +2348,15 @@
     <col min="3" max="4" width="10.6640625" style="5" customWidth="1"/>
     <col min="5" max="6" width="14.6640625" style="5" customWidth="1"/>
     <col min="7" max="8" width="24.6640625" style="5" customWidth="1"/>
-    <col min="9" max="10" width="45.6640625" style="5" customWidth="1"/>
+    <col min="9" max="10" width="27.6640625" style="5" customWidth="1"/>
     <col min="11" max="11" width="24.6640625" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="5"/>
+    <col min="12" max="12" width="9.1640625" style="5" customWidth="1"/>
+    <col min="13" max="16" width="9.1640625" style="5"/>
+    <col min="17" max="17" width="34.1640625" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2321,8 +2390,26 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L1" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>44183</v>
       </c>
@@ -2355,7 +2442,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>44183</v>
       </c>
@@ -2388,7 +2475,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>44183</v>
       </c>
@@ -2421,7 +2508,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>44183</v>
       </c>
@@ -2454,7 +2541,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>44183</v>
       </c>
@@ -2487,7 +2574,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>44183</v>
       </c>
@@ -2521,8 +2608,28 @@
       <c r="K7" s="2" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L7" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f t="shared" ref="P7:P23" si="0">D7</f>
+        <v>C176472</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f t="shared" ref="Q7:Q23" si="1">K7</f>
+        <v>C176472 is replacing C124502 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>44183</v>
       </c>
@@ -2556,8 +2663,28 @@
       <c r="K8" s="2" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L8" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C176473</v>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>C176473 is replacing C124521 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>44183</v>
       </c>
@@ -2591,8 +2718,28 @@
       <c r="K9" s="2" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L9" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C176474</v>
+      </c>
+      <c r="Q9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>C176474 is replacing C124527 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>44183</v>
       </c>
@@ -2626,8 +2773,28 @@
       <c r="K10" s="2" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L10" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C176475</v>
+      </c>
+      <c r="Q10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>C176475 is replacing C94569 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>44183</v>
       </c>
@@ -2661,8 +2828,28 @@
       <c r="K11" s="2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L11" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C176476</v>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>C176476 is replacing C124544 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>44183</v>
       </c>
@@ -2696,8 +2883,28 @@
       <c r="K12" s="2" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L12" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C176477</v>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>C176477 is replacing C84784 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>44183</v>
       </c>
@@ -2731,8 +2938,28 @@
       <c r="K13" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L13" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C176478</v>
+      </c>
+      <c r="Q13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>C176478 is replacing C124552 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>44183</v>
       </c>
@@ -2766,8 +2993,28 @@
       <c r="K14" s="2" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L14" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C176479</v>
+      </c>
+      <c r="Q14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>C176479 is replacing C124569 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>44183</v>
       </c>
@@ -2801,8 +3048,28 @@
       <c r="K15" s="2" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L15" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C176480</v>
+      </c>
+      <c r="Q15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>C176480 is replacing C84492 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>44183</v>
       </c>
@@ -2836,8 +3103,28 @@
       <c r="K16" s="2" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L16" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C176481</v>
+      </c>
+      <c r="Q16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>C176481 is replacing C124589 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>44183</v>
       </c>
@@ -2871,8 +3158,28 @@
       <c r="K17" s="2" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L17" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C176482</v>
+      </c>
+      <c r="Q17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>C176482 is replacing C84742 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>44183</v>
       </c>
@@ -2906,8 +3213,28 @@
       <c r="K18" s="2" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L18" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C176483</v>
+      </c>
+      <c r="Q18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>C176483 is replacing C124591 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>44183</v>
       </c>
@@ -2941,8 +3268,28 @@
       <c r="K19" s="2" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L19" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C176484</v>
+      </c>
+      <c r="Q19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>C176484 is replacing C2888 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>44183</v>
       </c>
@@ -2976,8 +3323,28 @@
       <c r="K20" s="2" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L20" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C176485</v>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>C176485 is replacing C124592 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>44183</v>
       </c>
@@ -3011,8 +3378,28 @@
       <c r="K21" s="2" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L21" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C38019</v>
+      </c>
+      <c r="Q21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>C38019 is replacing C124582 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>44183</v>
       </c>
@@ -3046,8 +3433,28 @@
       <c r="K22" s="2" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" ht="98" x14ac:dyDescent="0.2">
+      <c r="L22" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C49069</v>
+      </c>
+      <c r="Q22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>C49069 is replacing C124567 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="9" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>44183</v>
       </c>
@@ -3081,8 +3488,28 @@
       <c r="K23" s="2" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L23" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="P23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>C61510</v>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>C61510 is replacing C124510, C124511, C124512, C124513, C87069, and C87175 in the codelist. Anatomical Location type information should go into LOC or RESLOC variable.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>44183</v>
       </c>
@@ -3115,7 +3542,7 @@
       </c>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>44183</v>
       </c>
@@ -3148,7 +3575,7 @@
       </c>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>44183</v>
       </c>
@@ -3181,7 +3608,7 @@
       </c>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>44183</v>
       </c>
@@ -3214,7 +3641,7 @@
       </c>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>44183</v>
       </c>
@@ -3247,7 +3674,7 @@
       </c>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>44183</v>
       </c>
@@ -3280,7 +3707,7 @@
       </c>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>44183</v>
       </c>
@@ -3313,7 +3740,7 @@
       </c>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>44183</v>
       </c>
@@ -3346,7 +3773,7 @@
       </c>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>44183</v>
       </c>
@@ -3379,7 +3806,7 @@
       </c>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>44183</v>
       </c>
@@ -3412,7 +3839,7 @@
       </c>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>44183</v>
       </c>
@@ -3445,7 +3872,7 @@
       </c>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>44183</v>
       </c>
@@ -3478,7 +3905,7 @@
       </c>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>44183</v>
       </c>
@@ -3511,7 +3938,7 @@
       </c>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>44183</v>
       </c>
@@ -3544,7 +3971,7 @@
       </c>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>44183</v>
       </c>
@@ -3577,7 +4004,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>44183</v>
       </c>
@@ -3610,7 +4037,7 @@
       </c>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>44183</v>
       </c>
@@ -3643,7 +4070,7 @@
       </c>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>44183</v>
       </c>
@@ -3676,7 +4103,7 @@
       </c>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>44183</v>
       </c>
@@ -3709,7 +4136,7 @@
       </c>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>44183</v>
       </c>
@@ -3742,7 +4169,7 @@
       </c>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>44183</v>
       </c>
@@ -3775,7 +4202,7 @@
       </c>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>44183</v>
       </c>
@@ -3808,7 +4235,7 @@
       </c>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>44183</v>
       </c>
@@ -3841,7 +4268,7 @@
       </c>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>44183</v>
       </c>
@@ -3874,7 +4301,7 @@
       </c>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>44183</v>
       </c>
@@ -3907,7 +4334,7 @@
       </c>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>44183</v>
       </c>
@@ -3940,7 +4367,7 @@
       </c>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>44183</v>
       </c>
@@ -3973,7 +4400,7 @@
       </c>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>44183</v>
       </c>
@@ -4006,7 +4433,7 @@
       </c>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>44183</v>
       </c>
@@ -4039,7 +4466,7 @@
       </c>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>44183</v>
       </c>
@@ -4072,7 +4499,7 @@
       </c>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>44183</v>
       </c>
@@ -4105,7 +4532,7 @@
       </c>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>44183</v>
       </c>
@@ -4138,7 +4565,7 @@
       </c>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>44183</v>
       </c>
@@ -4171,7 +4598,7 @@
       </c>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>44183</v>
       </c>
@@ -4204,7 +4631,7 @@
       </c>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>44183</v>
       </c>
@@ -4237,7 +4664,7 @@
       </c>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>44183</v>
       </c>
@@ -4270,7 +4697,7 @@
       </c>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>44183</v>
       </c>
@@ -4303,7 +4730,7 @@
       </c>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>44183</v>
       </c>
@@ -4336,7 +4763,7 @@
       </c>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>44183</v>
       </c>
@@ -4369,7 +4796,7 @@
       </c>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>44183</v>
       </c>
@@ -4402,7 +4829,7 @@
       </c>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>44183</v>
       </c>
@@ -4435,7 +4862,7 @@
       </c>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>44183</v>
       </c>
@@ -4468,7 +4895,7 @@
       </c>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>44183</v>
       </c>
@@ -4501,7 +4928,7 @@
       </c>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>44183</v>
       </c>
@@ -4534,7 +4961,7 @@
       </c>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>44183</v>
       </c>
@@ -4567,7 +4994,7 @@
       </c>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>44183</v>
       </c>
@@ -4600,7 +5027,7 @@
       </c>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>44183</v>
       </c>
@@ -4633,7 +5060,7 @@
       </c>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>44183</v>
       </c>
@@ -4666,7 +5093,7 @@
       </c>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>44183</v>
       </c>
@@ -4699,7 +5126,7 @@
       </c>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>44183</v>
       </c>
@@ -4732,7 +5159,7 @@
       </c>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>44183</v>
       </c>
@@ -4765,7 +5192,7 @@
       </c>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>44183</v>
       </c>
@@ -4798,7 +5225,7 @@
       </c>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <v>44183</v>
       </c>
@@ -4831,7 +5258,7 @@
       </c>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>44183</v>
       </c>
@@ -4864,7 +5291,7 @@
       </c>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>44183</v>
       </c>
@@ -4897,7 +5324,7 @@
       </c>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <v>44183</v>
       </c>
@@ -4930,7 +5357,7 @@
       </c>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
         <v>44183</v>
       </c>
@@ -4963,7 +5390,7 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>44183</v>
       </c>
@@ -4996,7 +5423,7 @@
       </c>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <v>44183</v>
       </c>
@@ -5029,7 +5456,7 @@
       </c>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>44183</v>
       </c>
@@ -5062,7 +5489,7 @@
       </c>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <v>44183</v>
       </c>
@@ -5095,7 +5522,7 @@
       </c>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>44183</v>
       </c>
@@ -5128,7 +5555,7 @@
       </c>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>44183</v>
       </c>
@@ -5161,7 +5588,7 @@
       </c>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>44183</v>
       </c>
@@ -5194,7 +5621,7 @@
       </c>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <v>44183</v>
       </c>
@@ -5227,7 +5654,7 @@
       </c>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
         <v>44183</v>
       </c>
@@ -5260,7 +5687,7 @@
       </c>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>44183</v>
       </c>
@@ -5293,7 +5720,7 @@
       </c>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
         <v>44183</v>
       </c>
@@ -5326,7 +5753,7 @@
       </c>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11">
         <v>44183</v>
       </c>
@@ -5359,7 +5786,7 @@
       </c>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <v>44183</v>
       </c>
@@ -5392,7 +5819,7 @@
       </c>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <v>44183</v>
       </c>
@@ -5425,7 +5852,7 @@
       </c>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <v>44183</v>
       </c>
@@ -5458,7 +5885,7 @@
       </c>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11">
         <v>44183</v>
       </c>
@@ -5491,7 +5918,7 @@
       </c>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11">
         <v>44183</v>
       </c>
@@ -5524,7 +5951,7 @@
       </c>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11">
         <v>44183</v>
       </c>
@@ -5557,7 +5984,7 @@
       </c>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11">
         <v>44183</v>
       </c>
@@ -5590,7 +6017,7 @@
       </c>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11">
         <v>44183</v>
       </c>
@@ -5623,7 +6050,7 @@
       </c>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11">
         <v>44183</v>
       </c>
@@ -5656,7 +6083,7 @@
       </c>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11">
         <v>44183</v>
       </c>
@@ -5689,7 +6116,7 @@
       </c>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11">
         <v>44183</v>
       </c>
@@ -5722,7 +6149,7 @@
       </c>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11">
         <v>44183</v>
       </c>
@@ -5755,7 +6182,7 @@
       </c>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11">
         <v>44183</v>
       </c>
@@ -5788,7 +6215,7 @@
       </c>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11">
         <v>44183</v>
       </c>
@@ -5821,7 +6248,7 @@
       </c>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11">
         <v>44183</v>
       </c>
@@ -5854,7 +6281,7 @@
       </c>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="11">
         <v>44183</v>
       </c>
@@ -5887,7 +6314,7 @@
       </c>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11">
         <v>44183</v>
       </c>
@@ -5920,7 +6347,7 @@
       </c>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" s="9" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11">
         <v>44183</v>
       </c>
@@ -5953,7 +6380,7 @@
       </c>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11">
         <v>44183</v>
       </c>
@@ -5986,7 +6413,7 @@
       </c>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11">
         <v>44183</v>
       </c>
@@ -6019,7 +6446,7 @@
       </c>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11">
         <v>44183</v>
       </c>
@@ -6052,7 +6479,7 @@
       </c>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="11">
         <v>44183</v>
       </c>
@@ -6085,7 +6512,7 @@
       </c>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11">
         <v>44183</v>
       </c>
@@ -6118,7 +6545,7 @@
       </c>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11">
         <v>44183</v>
       </c>
@@ -6151,7 +6578,7 @@
       </c>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="11">
         <v>44183</v>
       </c>
@@ -6184,7 +6611,7 @@
       </c>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="11">
         <v>44183</v>
       </c>
@@ -6217,7 +6644,7 @@
       </c>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="11">
         <v>44183</v>
       </c>
@@ -6250,7 +6677,7 @@
       </c>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="11">
         <v>44183</v>
       </c>
@@ -6283,7 +6710,7 @@
       </c>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" s="9" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="11">
         <v>44183</v>
       </c>
@@ -6316,7 +6743,7 @@
       </c>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="11">
         <v>44183</v>
       </c>
@@ -6349,7 +6776,7 @@
       </c>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="11">
         <v>44183</v>
       </c>
@@ -6382,7 +6809,7 @@
       </c>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="11">
         <v>44183</v>
       </c>
@@ -6415,7 +6842,7 @@
       </c>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11">
         <v>44183</v>
       </c>
@@ -6448,7 +6875,7 @@
       </c>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="11">
         <v>44183</v>
       </c>
@@ -6481,7 +6908,7 @@
       </c>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="11">
         <v>44183</v>
       </c>
@@ -6514,7 +6941,7 @@
       </c>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="11">
         <v>44183</v>
       </c>
@@ -6547,7 +6974,7 @@
       </c>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="11">
         <v>44183</v>
       </c>
@@ -6580,7 +7007,7 @@
       </c>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="11">
         <v>44183</v>
       </c>
@@ -6613,7 +7040,7 @@
       </c>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="11">
         <v>44183</v>
       </c>
@@ -6646,7 +7073,7 @@
       </c>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="11">
         <v>44183</v>
       </c>
@@ -6679,7 +7106,7 @@
       </c>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="11">
         <v>44183</v>
       </c>
@@ -6712,7 +7139,7 @@
       </c>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="11">
         <v>44183</v>
       </c>
@@ -6745,7 +7172,7 @@
       </c>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="11">
         <v>44183</v>
       </c>
@@ -6778,7 +7205,7 @@
       </c>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="11">
         <v>44183</v>
       </c>
@@ -6811,7 +7238,7 @@
       </c>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="11">
         <v>44183</v>
       </c>
@@ -6844,7 +7271,7 @@
       </c>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="11">
         <v>44183</v>
       </c>
@@ -6877,7 +7304,7 @@
       </c>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="11">
         <v>44183</v>
       </c>
@@ -6910,7 +7337,7 @@
       </c>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="11">
         <v>44183</v>
       </c>
@@ -6943,7 +7370,7 @@
       </c>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="11">
         <v>44183</v>
       </c>
@@ -6976,7 +7403,7 @@
       </c>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="11">
         <v>44183</v>
       </c>
@@ -7009,7 +7436,7 @@
       </c>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="11">
         <v>44183</v>
       </c>
@@ -7042,7 +7469,7 @@
       </c>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="11">
         <v>44183</v>
       </c>
@@ -7075,7 +7502,7 @@
       </c>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="11">
         <v>44183</v>
       </c>
@@ -7108,7 +7535,7 @@
       </c>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="11">
         <v>44183</v>
       </c>
@@ -7141,7 +7568,7 @@
       </c>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="11">
         <v>44183</v>
       </c>
@@ -7174,7 +7601,7 @@
       </c>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="11">
         <v>44183</v>
       </c>
@@ -7207,7 +7634,7 @@
       </c>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="11">
         <v>44183</v>
       </c>
@@ -7240,7 +7667,7 @@
       </c>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="11">
         <v>44183</v>
       </c>
@@ -7273,7 +7700,7 @@
       </c>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="11">
         <v>44183</v>
       </c>
@@ -7306,7 +7733,7 @@
       </c>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="11">
         <v>44183</v>
       </c>
@@ -7339,7 +7766,7 @@
       </c>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="11">
         <v>44183</v>
       </c>
@@ -7372,7 +7799,7 @@
       </c>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="11">
         <v>44183</v>
       </c>
@@ -7405,7 +7832,7 @@
       </c>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="11">
         <v>44183</v>
       </c>
@@ -7438,7 +7865,7 @@
       </c>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="11">
         <v>44183</v>
       </c>
@@ -7471,7 +7898,7 @@
       </c>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="11">
         <v>44183</v>
       </c>
@@ -7504,7 +7931,7 @@
       </c>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="11">
         <v>44183</v>
       </c>
@@ -7537,7 +7964,7 @@
       </c>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A159" s="11">
         <v>44183</v>
       </c>
@@ -7571,8 +7998,29 @@
       <c r="K159" s="10" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L159" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="N159" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O159" s="2" t="str">
+        <f>M159</f>
+        <v>C89981</v>
+      </c>
+      <c r="P159" s="2" t="str">
+        <f>D159</f>
+        <v>C173665</v>
+      </c>
+      <c r="Q159" s="2" t="str">
+        <f>K159</f>
+        <v>C173665 is replacing C90353 in the codelist.</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A160" s="11">
         <v>44183</v>
       </c>
@@ -7606,8 +8054,27 @@
       <c r="K160" s="10" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L160" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="N160" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="P160" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q160" s="2" t="str">
+        <f>K160</f>
+        <v>C173665 is replacing C90353 in the codelist.</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A161" s="11">
         <v>44183</v>
       </c>
@@ -7641,8 +8108,27 @@
       <c r="K161" s="10" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L161" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="N161" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="P161" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q161" s="2" t="str">
+        <f>K161</f>
+        <v>C176321 is replacing C12671 in the codelist.</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="11">
         <v>44183</v>
       </c>
@@ -7674,8 +8160,10 @@
         <v>467</v>
       </c>
       <c r="K162" s="10"/>
-    </row>
-    <row r="163" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="M162" s="2"/>
+      <c r="O162" s="2"/>
+    </row>
+    <row r="163" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="11">
         <v>44183</v>
       </c>
@@ -7707,8 +8195,10 @@
         <v>471</v>
       </c>
       <c r="K163" s="2"/>
-    </row>
-    <row r="164" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="M163" s="2"/>
+      <c r="O163" s="2"/>
+    </row>
+    <row r="164" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="11">
         <v>44183</v>
       </c>
@@ -7740,8 +8230,10 @@
         <v>474</v>
       </c>
       <c r="K164" s="2"/>
-    </row>
-    <row r="165" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="M164" s="2"/>
+      <c r="O164" s="2"/>
+    </row>
+    <row r="165" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="11">
         <v>44183</v>
       </c>
@@ -7773,8 +8265,10 @@
         <v>485</v>
       </c>
       <c r="K165" s="2"/>
-    </row>
-    <row r="166" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="M165" s="2"/>
+      <c r="O165" s="2"/>
+    </row>
+    <row r="166" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="11">
         <v>44183</v>
       </c>
@@ -7806,8 +8300,10 @@
         <v>487</v>
       </c>
       <c r="K166" s="2"/>
-    </row>
-    <row r="167" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="M166" s="2"/>
+      <c r="O166" s="2"/>
+    </row>
+    <row r="167" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="11">
         <v>44183</v>
       </c>
@@ -7839,8 +8335,10 @@
         <v>489</v>
       </c>
       <c r="K167" s="2"/>
-    </row>
-    <row r="168" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="M167" s="2"/>
+      <c r="O167" s="2"/>
+    </row>
+    <row r="168" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="11">
         <v>44183</v>
       </c>
@@ -7872,8 +8370,10 @@
         <v>491</v>
       </c>
       <c r="K168" s="2"/>
-    </row>
-    <row r="169" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="M168" s="2"/>
+      <c r="O168" s="2"/>
+    </row>
+    <row r="169" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="11">
         <v>44183</v>
       </c>
@@ -7905,8 +8405,10 @@
         <v>493</v>
       </c>
       <c r="K169" s="2"/>
-    </row>
-    <row r="170" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="M169" s="2"/>
+      <c r="O169" s="2"/>
+    </row>
+    <row r="170" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="11">
         <v>44183</v>
       </c>
@@ -7938,8 +8440,10 @@
         <v>495</v>
       </c>
       <c r="K170" s="2"/>
-    </row>
-    <row r="171" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="M170" s="2"/>
+      <c r="O170" s="2"/>
+    </row>
+    <row r="171" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="11">
         <v>44183</v>
       </c>
@@ -7971,8 +8475,10 @@
         <v>497</v>
       </c>
       <c r="K171" s="2"/>
-    </row>
-    <row r="172" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="M171" s="2"/>
+      <c r="O171" s="2"/>
+    </row>
+    <row r="172" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="11">
         <v>44183</v>
       </c>
@@ -8004,8 +8510,10 @@
         <v>499</v>
       </c>
       <c r="K172" s="2"/>
-    </row>
-    <row r="173" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="M172" s="2"/>
+      <c r="O172" s="2"/>
+    </row>
+    <row r="173" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="11">
         <v>44183</v>
       </c>
@@ -8037,8 +8545,10 @@
         <v>501</v>
       </c>
       <c r="K173" s="2"/>
-    </row>
-    <row r="174" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="M173" s="2"/>
+      <c r="O173" s="2"/>
+    </row>
+    <row r="174" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="11">
         <v>44183</v>
       </c>
@@ -8070,8 +8580,10 @@
         <v>503</v>
       </c>
       <c r="K174" s="2"/>
-    </row>
-    <row r="175" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="M174" s="2"/>
+      <c r="O174" s="2"/>
+    </row>
+    <row r="175" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="11">
         <v>44183</v>
       </c>
@@ -8103,8 +8615,10 @@
         <v>505</v>
       </c>
       <c r="K175" s="2"/>
-    </row>
-    <row r="176" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="M175" s="2"/>
+      <c r="O175" s="2"/>
+    </row>
+    <row r="176" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="11">
         <v>44183</v>
       </c>
@@ -8136,8 +8650,10 @@
         <v>507</v>
       </c>
       <c r="K176" s="2"/>
-    </row>
-    <row r="177" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="M176" s="2"/>
+      <c r="O176" s="2"/>
+    </row>
+    <row r="177" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="11">
         <v>44183</v>
       </c>
@@ -8169,8 +8685,10 @@
         <v>509</v>
       </c>
       <c r="K177" s="2"/>
-    </row>
-    <row r="178" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="M177" s="2"/>
+      <c r="O177" s="2"/>
+    </row>
+    <row r="178" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="11">
         <v>44183</v>
       </c>
@@ -8202,8 +8720,10 @@
         <v>483</v>
       </c>
       <c r="K178" s="2"/>
-    </row>
-    <row r="179" spans="1:11" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="M178" s="2"/>
+      <c r="O178" s="2"/>
+    </row>
+    <row r="179" spans="1:17" s="9" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="11">
         <v>44183</v>
       </c>
@@ -8237,8 +8757,16 @@
       <c r="K179" s="2" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="L179" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M179" s="2"/>
+      <c r="N179" s="2"/>
+      <c r="O179" s="2"/>
+      <c r="P179" s="2"/>
+      <c r="Q179" s="2"/>
+    </row>
+    <row r="180" spans="1:17" s="9" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="11">
         <v>44183</v>
       </c>
@@ -8272,8 +8800,16 @@
       <c r="K180" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="L180" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
+      <c r="O180" s="2"/>
+      <c r="P180" s="2"/>
+      <c r="Q180" s="2"/>
+    </row>
+    <row r="181" spans="1:17" s="9" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="11">
         <v>44183</v>
       </c>
@@ -8307,8 +8843,16 @@
       <c r="K181" s="2" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="L181" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2"/>
+    </row>
+    <row r="182" spans="1:17" s="9" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="11">
         <v>44183</v>
       </c>
@@ -8342,8 +8886,16 @@
       <c r="K182" s="2" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="L182" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M182" s="2"/>
+      <c r="N182" s="2"/>
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+    </row>
+    <row r="183" spans="1:17" s="9" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="11">
         <v>44183</v>
       </c>
@@ -8377,8 +8929,16 @@
       <c r="K183" s="2" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="L183" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="2"/>
+    </row>
+    <row r="184" spans="1:17" s="9" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="11">
         <v>44183</v>
       </c>
@@ -8412,8 +8972,16 @@
       <c r="K184" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="L184" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+      <c r="P184" s="2"/>
+      <c r="Q184" s="2"/>
+    </row>
+    <row r="185" spans="1:17" s="9" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="11">
         <v>44183</v>
       </c>
@@ -8447,8 +9015,16 @@
       <c r="K185" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="L185" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
+      <c r="P185" s="2"/>
+      <c r="Q185" s="2"/>
+    </row>
+    <row r="186" spans="1:17" s="9" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="11">
         <v>44183</v>
       </c>
@@ -8482,8 +9058,16 @@
       <c r="K186" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="L186" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M186" s="2"/>
+      <c r="N186" s="2"/>
+      <c r="O186" s="2"/>
+      <c r="P186" s="2"/>
+      <c r="Q186" s="2"/>
+    </row>
+    <row r="187" spans="1:17" s="9" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="11">
         <v>44183</v>
       </c>
@@ -8517,8 +9101,16 @@
       <c r="K187" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="L187" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
+      <c r="P187" s="2"/>
+      <c r="Q187" s="2"/>
+    </row>
+    <row r="188" spans="1:17" s="9" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="11">
         <v>44183</v>
       </c>
@@ -8552,8 +9144,16 @@
       <c r="K188" s="2" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="L188" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
+      <c r="O188" s="2"/>
+      <c r="P188" s="2"/>
+      <c r="Q188" s="2"/>
+    </row>
+    <row r="189" spans="1:17" s="9" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="11">
         <v>44183</v>
       </c>
@@ -8587,8 +9187,16 @@
       <c r="K189" s="2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="L189" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+    </row>
+    <row r="190" spans="1:17" s="9" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="11">
         <v>44183</v>
       </c>
@@ -8622,8 +9230,16 @@
       <c r="K190" s="2" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="L190" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
+      <c r="O190" s="2"/>
+      <c r="P190" s="2"/>
+      <c r="Q190" s="2"/>
+    </row>
+    <row r="191" spans="1:17" s="9" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="11">
         <v>44183</v>
       </c>
@@ -8657,8 +9273,16 @@
       <c r="K191" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="L191" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+    </row>
+    <row r="192" spans="1:17" s="9" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="11">
         <v>44183</v>
       </c>
@@ -8692,8 +9316,16 @@
       <c r="K192" s="2" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="L192" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+    </row>
+    <row r="193" spans="1:17" s="9" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="11">
         <v>44183</v>
       </c>
@@ -8727,8 +9359,16 @@
       <c r="K193" s="2" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="L193" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+    </row>
+    <row r="194" spans="1:17" s="9" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="11">
         <v>44183</v>
       </c>
@@ -8762,8 +9402,16 @@
       <c r="K194" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L194" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+    </row>
+    <row r="195" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="11">
         <v>44183</v>
       </c>
@@ -8797,8 +9445,16 @@
       <c r="K195" s="2" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L195" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+    </row>
+    <row r="196" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="11">
         <v>44183</v>
       </c>
@@ -8832,8 +9488,16 @@
       <c r="K196" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L196" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+    </row>
+    <row r="197" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="11">
         <v>44183</v>
       </c>
@@ -8867,8 +9531,16 @@
       <c r="K197" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L197" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+    </row>
+    <row r="198" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="11">
         <v>44183</v>
       </c>
@@ -8902,8 +9574,16 @@
       <c r="K198" s="2" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L198" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
+      <c r="Q198" s="2"/>
+    </row>
+    <row r="199" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="11">
         <v>44183</v>
       </c>
@@ -8937,8 +9617,16 @@
       <c r="K199" s="2" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L199" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+    </row>
+    <row r="200" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="11">
         <v>44183</v>
       </c>
@@ -8972,8 +9660,16 @@
       <c r="K200" s="2" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L200" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+    </row>
+    <row r="201" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="11">
         <v>44183</v>
       </c>
@@ -9007,8 +9703,16 @@
       <c r="K201" s="2" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L201" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" s="2"/>
+    </row>
+    <row r="202" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="11">
         <v>44183</v>
       </c>
@@ -9042,8 +9746,16 @@
       <c r="K202" s="2" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L202" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="O202" s="2"/>
+      <c r="P202" s="2"/>
+      <c r="Q202" s="2"/>
+    </row>
+    <row r="203" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="11">
         <v>44183</v>
       </c>
@@ -9077,8 +9789,16 @@
       <c r="K203" s="2" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L203" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2"/>
+    </row>
+    <row r="204" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="11">
         <v>44183</v>
       </c>
@@ -9112,8 +9832,16 @@
       <c r="K204" s="10" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L204" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2"/>
+      <c r="O204" s="2"/>
+      <c r="P204" s="2"/>
+      <c r="Q204" s="2"/>
+    </row>
+    <row r="205" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="11">
         <v>44183</v>
       </c>
@@ -9147,8 +9875,16 @@
       <c r="K205" s="10" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L205" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
+      <c r="P205" s="2"/>
+      <c r="Q205" s="2"/>
+    </row>
+    <row r="206" spans="1:17" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A206" s="11">
         <v>44183</v>
       </c>
@@ -9182,8 +9918,28 @@
       <c r="K206" s="10" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L206" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M206" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="N206" s="2" t="str">
+        <f>D206</f>
+        <v>C103392</v>
+      </c>
+      <c r="O206" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="P206" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q206" s="2" t="str">
+        <f>K206</f>
+        <v>Remove C103392 from codelist. Use existing term C3740 OSTEOFIBROMA, BENIGN.</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A207" s="11">
         <v>44183</v>
       </c>
@@ -9217,8 +9973,24 @@
       <c r="K207" s="10" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L207" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M207" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="N207" s="2" t="str">
+        <f t="shared" ref="N207:N210" si="2">D207</f>
+        <v>C124610</v>
+      </c>
+      <c r="O207" s="2"/>
+      <c r="P207" s="2"/>
+      <c r="Q207" s="2" t="str">
+        <f t="shared" ref="Q207:Q210" si="3">K207</f>
+        <v>Remove C124610 from codelist. The term is not generally reported, therefore the team would prefer not to maintain it any longer.</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A208" s="11">
         <v>44183</v>
       </c>
@@ -9252,8 +10024,28 @@
       <c r="K208" s="10" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L208" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M208" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="N208" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C27096</v>
+      </c>
+      <c r="O208" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="P208" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q208" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Remove C27096 from codelist. Use existing term C9118 SARCOMA, MALIGNANT.</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A209" s="11">
         <v>44183</v>
       </c>
@@ -9287,8 +10079,24 @@
       <c r="K209" s="10" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L209" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M209" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="N209" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C84357</v>
+      </c>
+      <c r="O209" s="2"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Remove C84357 from codelist. The term is not generally reported, therefore the team would prefer not to maintain it any longer.</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A210" s="11">
         <v>44183</v>
       </c>
@@ -9322,8 +10130,26 @@
       <c r="K210" s="10" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L210" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="M210" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="N210" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C92180</v>
+      </c>
+      <c r="O210" s="2"/>
+      <c r="P210" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q210" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Remove C92180 from codelist. Use existing term C67012 SERTOLI CELL TUMOR, BENIGN.</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="11">
         <v>44183</v>
       </c>
@@ -9357,8 +10183,16 @@
       <c r="K211" s="10" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L211" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M211" s="2"/>
+      <c r="N211" s="2"/>
+      <c r="O211" s="2"/>
+      <c r="P211" s="2"/>
+      <c r="Q211" s="2"/>
+    </row>
+    <row r="212" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="11">
         <v>44183</v>
       </c>
@@ -9392,8 +10226,16 @@
       <c r="K212" s="10" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="L212" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
+      <c r="P212" s="2"/>
+      <c r="Q212" s="2"/>
+    </row>
+    <row r="213" spans="1:17" s="9" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="11">
         <v>44183</v>
       </c>
@@ -9427,8 +10269,16 @@
       <c r="K213" s="10" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L213" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M213" s="2"/>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
+      <c r="P213" s="2"/>
+      <c r="Q213" s="2"/>
+    </row>
+    <row r="214" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="11">
         <v>44183</v>
       </c>
@@ -9461,7 +10311,7 @@
       </c>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="11">
         <v>44183</v>
       </c>
@@ -9494,7 +10344,7 @@
       </c>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="11">
         <v>44183</v>
       </c>
@@ -9527,7 +10377,7 @@
       </c>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="11">
         <v>44183</v>
       </c>
@@ -9560,7 +10410,7 @@
       </c>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="11">
         <v>44183</v>
       </c>
@@ -9593,7 +10443,7 @@
       </c>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="11">
         <v>44183</v>
       </c>
@@ -9626,7 +10476,7 @@
       </c>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="11">
         <v>44183</v>
       </c>
@@ -9659,7 +10509,7 @@
       </c>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="11">
         <v>44183</v>
       </c>
@@ -9692,7 +10542,7 @@
       </c>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="11">
         <v>44183</v>
       </c>
@@ -9725,7 +10575,7 @@
       </c>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="11">
         <v>44183</v>
       </c>
@@ -9758,7 +10608,7 @@
       </c>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="11">
         <v>44183</v>
       </c>
@@ -9792,8 +10642,16 @@
       <c r="K224" s="10" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L224" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M224" s="2"/>
+      <c r="N224" s="2"/>
+      <c r="O224" s="2"/>
+      <c r="P224" s="2"/>
+      <c r="Q224" s="2"/>
+    </row>
+    <row r="225" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="11">
         <v>44183</v>
       </c>
@@ -9826,7 +10684,7 @@
       </c>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="11">
         <v>44183</v>
       </c>
@@ -9859,7 +10717,7 @@
       </c>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="11">
         <v>44183</v>
       </c>
@@ -9892,7 +10750,7 @@
       </c>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="11">
         <v>44183</v>
       </c>
@@ -9925,7 +10783,7 @@
       </c>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="11">
         <v>44183</v>
       </c>
@@ -9958,7 +10816,7 @@
       </c>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="11">
         <v>44183</v>
       </c>
@@ -9991,7 +10849,7 @@
       </c>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="11">
         <v>44183</v>
       </c>
@@ -10024,7 +10882,7 @@
       </c>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="11">
         <v>44183</v>
       </c>
@@ -10057,7 +10915,7 @@
       </c>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="11">
         <v>44183</v>
       </c>
@@ -10091,8 +10949,16 @@
       <c r="K233" s="10" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L233" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M233" s="2"/>
+      <c r="N233" s="2"/>
+      <c r="O233" s="2"/>
+      <c r="P233" s="2"/>
+      <c r="Q233" s="2"/>
+    </row>
+    <row r="234" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="11">
         <v>44183</v>
       </c>
@@ -10125,7 +10991,7 @@
       </c>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="11">
         <v>44183</v>
       </c>
@@ -10158,7 +11024,7 @@
       </c>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="11">
         <v>44183</v>
       </c>
@@ -10191,7 +11057,7 @@
       </c>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="11">
         <v>44183</v>
       </c>
@@ -10224,7 +11090,7 @@
       </c>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="11">
         <v>44183</v>
       </c>
@@ -10257,7 +11123,7 @@
       </c>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="11">
         <v>44183</v>
       </c>
@@ -10290,7 +11156,7 @@
       </c>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="11">
         <v>44183</v>
       </c>
@@ -10323,7 +11189,7 @@
       </c>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="11">
         <v>44183</v>
       </c>
@@ -10356,7 +11222,7 @@
       </c>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="11">
         <v>44183</v>
       </c>
@@ -10389,7 +11255,7 @@
       </c>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="11">
         <v>44183</v>
       </c>
@@ -10422,7 +11288,7 @@
       </c>
       <c r="K243" s="2"/>
     </row>
-    <row r="244" spans="1:11" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" s="9" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="11">
         <v>44183</v>
       </c>
@@ -10455,7 +11321,7 @@
       </c>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="11">
         <v>44183</v>
       </c>
@@ -10488,7 +11354,7 @@
       </c>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="11">
         <v>44183</v>
       </c>
@@ -10521,7 +11387,7 @@
       </c>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="11">
         <v>44183</v>
       </c>
@@ -10554,7 +11420,7 @@
       </c>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="1:11" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" s="9" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="11">
         <v>44183</v>
       </c>
@@ -10587,7 +11453,7 @@
       </c>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="11">
         <v>44183</v>
       </c>
@@ -10620,7 +11486,7 @@
       </c>
       <c r="K249" s="2"/>
     </row>
-    <row r="250" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="11">
         <v>44183</v>
       </c>
@@ -10653,7 +11519,7 @@
       </c>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="11">
         <v>44183</v>
       </c>
@@ -10686,7 +11552,7 @@
       </c>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" s="9" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="11">
         <v>44183</v>
       </c>
@@ -10719,7 +11585,7 @@
       </c>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="11">
         <v>44183</v>
       </c>
@@ -10752,7 +11618,7 @@
       </c>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="11">
         <v>44183</v>
       </c>
@@ -10785,7 +11651,7 @@
       </c>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="11">
         <v>44183</v>
       </c>
@@ -10818,7 +11684,7 @@
       </c>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="11">
         <v>44183</v>
       </c>
@@ -10851,7 +11717,7 @@
       </c>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="11">
         <v>44183</v>
       </c>
@@ -10884,7 +11750,7 @@
       </c>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="11">
         <v>44183</v>
       </c>
@@ -10917,7 +11783,7 @@
       </c>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="1:11" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" s="9" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="11">
         <v>44183</v>
       </c>
@@ -10950,7 +11816,7 @@
       </c>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="11">
         <v>44183</v>
       </c>
@@ -10983,7 +11849,7 @@
       </c>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" spans="1:11" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" s="9" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="11">
         <v>44183</v>
       </c>
@@ -11016,7 +11882,7 @@
       </c>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="1:11" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" s="9" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="11">
         <v>44183</v>
       </c>
@@ -11049,7 +11915,7 @@
       </c>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="11">
         <v>44183</v>
       </c>
@@ -11082,7 +11948,7 @@
       </c>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="11">
         <v>44183</v>
       </c>
@@ -11115,7 +11981,7 @@
       </c>
       <c r="K264" s="2"/>
     </row>
-    <row r="265" spans="1:11" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="11">
         <v>44183</v>
       </c>
@@ -11149,10 +12015,20 @@
       <c r="K265" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K265">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K265">
-      <sortCondition ref="C1:C205"/>
-    </sortState>
+  <autoFilter ref="A1:Q265" xr:uid="{8CDF407A-F50A-D749-927F-F0BD7185460F}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="12">
+      <filters>
+        <filter val="NEOPLASM"/>
+        <filter val="SBCCDSND"/>
+        <filter val="SBCSND"/>
+        <filter val="SPEC"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/db/load/cdisc/ct/changes/2020-12-18/SEND Terminology Changes 2020-12-18.xlsx
+++ b/db/load/cdisc/ct/changes/2020-12-18/SEND Terminology Changes 2020-12-18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/changes/2020-12-18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9080B09-4DED-AD4E-BE15-C66F2A4E2E8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A6D9F6-BA88-634D-993C-692516E929B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="36600" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38600" yWindow="460" windowWidth="36600" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEND Terminology Changes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="628">
   <si>
     <t>Release Date</t>
   </si>
@@ -2337,8 +2337,8 @@
   <dimension ref="A1:Q265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M273" sqref="M273"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O209" sqref="O209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7964,7 +7964,7 @@
       </c>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:17" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="11">
         <v>44183</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>C173665 is replacing C90353 in the codelist.</v>
       </c>
     </row>
-    <row r="160" spans="1:17" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="11">
         <v>44183</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>C173665 is replacing C90353 in the codelist.</v>
       </c>
     </row>
-    <row r="161" spans="1:17" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" s="9" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="11">
         <v>44183</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>559</v>
       </c>
       <c r="L205" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
@@ -9983,7 +9983,9 @@
         <f t="shared" ref="N207:N210" si="2">D207</f>
         <v>C124610</v>
       </c>
-      <c r="O207" s="2"/>
+      <c r="O207" s="2" t="s">
+        <v>627</v>
+      </c>
       <c r="P207" s="2"/>
       <c r="Q207" s="2" t="str">
         <f t="shared" ref="Q207:Q210" si="3">K207</f>
@@ -10089,7 +10091,9 @@
         <f t="shared" si="2"/>
         <v>C84357</v>
       </c>
-      <c r="O209" s="2"/>
+      <c r="O209" s="2" t="s">
+        <v>627</v>
+      </c>
       <c r="P209" s="2"/>
       <c r="Q209" s="2" t="str">
         <f t="shared" si="3"/>
@@ -10140,7 +10144,9 @@
         <f t="shared" si="2"/>
         <v>C92180</v>
       </c>
-      <c r="O210" s="2"/>
+      <c r="O210" s="2" t="s">
+        <v>627</v>
+      </c>
       <c r="P210" s="2" t="s">
         <v>622</v>
       </c>
@@ -12016,18 +12022,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q265" xr:uid="{8CDF407A-F50A-D749-927F-F0BD7185460F}">
-    <filterColumn colId="11">
+    <filterColumn colId="5">
       <filters>
-        <filter val="Y"/>
+        <filter val="NEOPLASM"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="12">
-      <filters>
-        <filter val="NEOPLASM"/>
-        <filter val="SBCCDSND"/>
-        <filter val="SBCSND"/>
-        <filter val="SPEC"/>
-      </filters>
+    <filterColumn colId="10">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
